--- a/dataSet.xlsx
+++ b/dataSet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="1128">
   <si>
     <t>XMLBEANS-512</t>
   </si>
@@ -2555,12 +2555,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I have set dfs.replication is equal to "1" in hiveContext object. But It did not work properly. 
-IIRC Spark 1.6 doesn't propagate the HiveContext configuration to the Hive library in some cases.
-I doubt we'll fix this in 1.6 at this point, and I believe this is fixed in 2.x, so let's close this.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Because the internal type for BigDecimal would be Decimal(38, 18) by default, (you can print the schema of x and y), the result scale of x("a") * y("b") will be 18 + 18 = 36. That is detected to have overflow so you get a null value back.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3047,11 +3041,6 @@
     // the trick is to block writer thread once there are more
     // than 100 messages in either rekey wait queue or nio write queue
 Added capability to register a ChannelStreamPacketWriterResolver through which one can wrap the channel inside one's own code that can do throttling. See also (experimental) ThrottlingPacketWriter example in sshd-contrib module.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes, normally you would not need to import inside the functions.  I think it is because the wordnet module initializes lazily, so when cloudpickle tries to pickle it, it is not complete and something is missed.  I tried calling wordnet.ensure_loaded() in main that forces the module to load and that looks it allows it to be pickled properly, but then it has a problem trying to unpickle it.  So I think it is best to use the workaround above for this case.
-I wonder why setup_environment method did not take care of this.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3415,10 +3404,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I understand the difficulty of the resolving dotted names that can clash with properties of the objects themselves</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Use
 RDFDatatype datatype = XSDDatatype.XSDdecimal ;
 rather than new XSDDatatype("decimal");.</t>
@@ -3469,18 +3454,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hello Chris,
-Unfortunately, we cannot delete or hide branches at this time. It's in our backlog to give the ability to hide them in the future but we do not have an ETA on when this would be possible. Sorry again for the inconvenience.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Environment:Firefox 57.0.1 on Ubuntu 16.04. Same thing with Chrome.
 Can workaround by disabling Lastpass. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">if it part of core that is the problem
-We have asked infra to set up redirects in INFRA-14849, but it's apparently not a small job. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3784,10 +3759,6 @@
   <si>
     <t>if I use the "Apache Directory LDAP Client API" Provider instead of JNDI, it works! 
 The difference is that JNDI is antiquated, dead in the water, and crappy.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> I know that's not handy but there is no smooth upgrade path between milestone versions.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4353,10 +4324,6 @@
     <t>1.1 Fixed by related issues</t>
   </si>
   <si>
-    <t>1.1 Fixed by related issues
-Flawed(del) reparis</t>
-  </si>
-  <si>
     <t>1.2 Fixed by newer versions</t>
   </si>
   <si>
@@ -4373,21 +4340,7 @@
     <t xml:space="preserve">2.2 Incompatible issues </t>
   </si>
   <si>
-    <t>2.3 Difficult problems</t>
-  </si>
-  <si>
-    <t>2.3 Difficult problems
-Unknown(del) Problems</t>
-  </si>
-  <si>
-    <t>2.6 Borderline cases</t>
-  </si>
-  <si>
     <t>1.1 Fixed problems</t>
-  </si>
-  <si>
-    <t>1.1 Fixed problems
-Repairs(del) on the environments--Modifying(del) file systems</t>
   </si>
   <si>
     <t>1.2 Unfixed problems</t>
@@ -4400,10 +4353,6 @@
     <t>2.3 Modifying build files or options</t>
   </si>
   <si>
-    <t>2.3 Modifying build files or options
-Repairs(del) on my project--Switching(del) to other techniques</t>
-  </si>
-  <si>
     <t>2.4 Repairing as technical debts</t>
   </si>
   <si>
@@ -4413,20 +4362,8 @@
     <t>4.1 Modifying operating systems</t>
   </si>
   <si>
-    <t>4.2 Modifying browsers</t>
-  </si>
-  <si>
-    <t>4.3 Deleting temporal files</t>
-  </si>
-  <si>
     <t>1.1 Fixed by related issues</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5 Recurring problems</t>
-  </si>
-  <si>
-    <t>2.4 Flaky problems</t>
   </si>
   <si>
     <t>2.3 Modifying build files or options</t>
@@ -4454,10 +4391,6 @@
 3.1 Switching to other libraries</t>
   </si>
   <si>
-    <t>2.3 Difficult problems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KUDU-1419</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4483,10 +4416,6 @@
     <t>6. Performance issue</t>
   </si>
   <si>
-    <t>2.7 Outside contributors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9. Unknown impacts</t>
   </si>
   <si>
@@ -4527,28 +4456,16 @@
   </si>
   <si>
     <t>2.2 Modifying my settings</t>
-  </si>
-  <si>
-    <t>2.2 Modifying my settings
-Repairs(del) on my project--Filter(del)/avoid</t>
   </si>
   <si>
     <t>3.3 Switching to newer versions
 2.2 Modifying my settings</t>
   </si>
   <si>
-    <t>2.2 Modifying my settings
-Repairs(del) on my project--Switching(del) to other techniques</t>
-  </si>
-  <si>
     <t>3.2 Switching to older versions
 2.2 Modifying my settings</t>
   </si>
   <si>
-    <t>2.2 Modifying my settings
-filter(del)/avoid</t>
-  </si>
-  <si>
     <t>3.1 Problems in my libraries</t>
   </si>
   <si>
@@ -4561,17 +4478,7 @@
   </si>
   <si>
     <t>3.1 Problems in my libraries
-2.5 Recurring problems</t>
-  </si>
-  <si>
-    <t>3.1 Problems in my libraries
 1.1 Fixed by related issues</t>
-  </si>
-  <si>
-    <t>3.3 Problems in my clients</t>
-  </si>
-  <si>
-    <t>3.4 Incorrect inputs</t>
   </si>
   <si>
     <t>1.2 Fixed by newer versions
@@ -4582,9 +4489,6 @@
   </si>
   <si>
     <t>4.3 Problems in languages</t>
-  </si>
-  <si>
-    <t>3.2 Problems in my API calls</t>
   </si>
   <si>
     <t>Why isn't system property, "org.apache.cxf.common.util.Compiler-fork"  allowed to be passed as an input arg to WSDLToJava?  And this property is not documented and should be.</t>
@@ -4609,11 +4513,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.4 Repairing as technical debts
-afterwards(del) handling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The membership service prefers to use numeric host addresses in order to avoid using DNS, which can hang if there is a network failure.  Use of host names can be forced with the system property
 -Dgemfire.forceDnsUse=true.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4624,14 +4523,6 @@
   </si>
   <si>
     <t>3.1 Problems in my libraries</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1 Problems in operating systems
-2.5 Recurring problems</t>
-  </si>
-  <si>
-    <t>3.4 Incorrect inputs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4645,26 +4536,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.8 Problems in settings</t>
-  </si>
-  <si>
     <t>4.1 Problems in operating systems</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.8 Problems in settings
-Incorrect(del) API calls</t>
-  </si>
-  <si>
     <t>2.2 Modifying my settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1 Problems in my libraries
-2.8 Problems in settings</t>
-  </si>
-  <si>
-    <t>2.8 Problems in settings</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4715,13 +4591,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.4 Switching to other techniques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4 Switching to other techniques
-</t>
-  </si>
-  <si>
     <t>3.4 Modifying the settings of libraries</t>
   </si>
   <si>
@@ -4733,10 +4602,6 @@
 3.4 Modifying the settings of libraries</t>
   </si>
   <si>
-    <t>4.4 Switching to other techniques
-3.4 Modifying the settings of libraries</t>
-  </si>
-  <si>
     <t>3.5 Overridden APIs</t>
   </si>
   <si>
@@ -4748,11 +4613,6 @@
   </si>
   <si>
     <t>3.7 Bypassing APIs with bugs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7 Bypassing APIs with bugs
-afterwards(del) handling
-</t>
   </si>
   <si>
     <t xml:space="preserve">3.8 Deep copying
@@ -4770,10 +4630,6 @@
 3.9 Modifying API calls</t>
   </si>
   <si>
-    <t>3.9 Modifying API calls
-afterwards(del) handling</t>
-  </si>
-  <si>
     <t>3.10 Modifying input values</t>
   </si>
   <si>
@@ -4798,9 +4654,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>I have set dfs.replication is equal to "1" in hiveContext object. But It did not work properly. 
+IIRC Spark 1.6 doesn't propagate the HiveContext configuration to the Hive library in some cases.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is the intended behavior;
+As is, this issue is not a bug; as an improvement, it might be possible to detect/flag 'pure' antish references and set/get them through overridable method.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 Incompatible issues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello Chris,
+Unfortunately, we cannot delete or hide branches at this time. It's in our backlog to give the ability to hide them in the future but we do not have an ETA on when this would be possible. Sorry again for the inconvenience.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 Incompatible issues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I believe the source code examples are all now appearing correctly. However, this means our docs can't be edited with Confluence until this issue is resolved.
+It's been 4 months and this is still a severe problem for us. The cwiki-test instance looked promising back in September. Is there a technical obstacle remaining, or is it just a matter of priorities and schedules?
+I think I could have used the space export/import process to do the same, but maybe there would have been problems from that.
+In any case, for Tapestry the issue is resolved and this ticket can be closed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 Flawed repairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4 Repairing as technical debts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> I know that's not handy but there is no smooth upgrade path between milestone versions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, normally you would not need to import inside the functions.  I think it is because the wordnet module initializes lazily, so when cloudpickle tries to pickle it, it is not complete and something is missed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are two guava dependencies of Nemo
+Root culprits relates to guava deserialization internals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 Problems in my libraries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3 Flaky problems</t>
+  </si>
+  <si>
+    <t>2.4 Recurring problems</t>
+  </si>
+  <si>
+    <t>3.1 Problems in my libraries
+2.4 Recurring problems</t>
+  </si>
+  <si>
+    <t>4.1 Problems in operating systems
+2.4 Recurring problems</t>
+  </si>
+  <si>
+    <t>2.5 Borderline cases</t>
+  </si>
+  <si>
+    <t>2.6 Outside contributors</t>
+  </si>
+  <si>
+    <t>2.7 Problems in settings</t>
+  </si>
+  <si>
+    <t>3.1 Problems in my libraries
+2.7 Problems in settings</t>
+  </si>
+  <si>
+    <t>3.2 Problems in my clients</t>
+  </si>
+  <si>
+    <t>3.3 Incorrect inputs</t>
+  </si>
+  <si>
+    <t>4.2 Deleting temporal files</t>
+  </si>
+  <si>
+    <t>4.3 Switching to other techniques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3 Switching to other techniques
+</t>
+  </si>
+  <si>
+    <t>4.3 Switching to other techniques
+3.4 Modifying the settings of libraries</t>
+  </si>
+  <si>
+    <t>2.3 Modifying build files or options</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 Modifying my settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 Fixed problems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.7 Problems in settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 Fixed by related issues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4 Repairing as technical debts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">3.7 Bypassing APIs with bugs
-Repairs(del) on my project--Filter(del)/avoid
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9 Modifying API calls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7 Bypassing APIs with bugs
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 Modifying my settings</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5655,7 +5649,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5666,56 +5660,56 @@
   <dimension ref="A1:O367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="I227" sqref="I227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15.21875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="24.77734375" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" customWidth="1"/>
     <col min="10" max="10" width="22" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="15.21875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" customWidth="1"/>
     <col min="14" max="14" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="38" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="C1" s="39"/>
       <c r="D1" s="39"/>
       <c r="E1" s="40"/>
       <c r="F1" s="38" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="G1" s="39"/>
       <c r="H1" s="39" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="I1" s="40"/>
       <c r="J1" s="39" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="K1" s="39"/>
       <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>111</v>
@@ -5724,22 +5718,22 @@
         <v>113</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="G2" s="34" t="s">
+        <v>988</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>991</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>992</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>993</v>
+      </c>
+      <c r="K2" s="36" t="s">
         <v>994</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>997</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>998</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>999</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>1000</v>
       </c>
       <c r="L2" s="37" t="s">
         <v>582</v>
@@ -5753,7 +5747,7 @@
         <v>128</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>112</v>
@@ -5763,17 +5757,17 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="5" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>588</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L3" s="24" t="s">
         <v>589</v>
@@ -5781,13 +5775,13 @@
     </row>
     <row r="4" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>114</v>
@@ -5796,22 +5790,22 @@
         <v>115</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>1088</v>
+        <v>1113</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>1122</v>
+        <v>1085</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>584</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>1052</v>
+        <v>1034</v>
       </c>
       <c r="L4" s="24" t="s">
         <v>583</v>
@@ -5825,7 +5819,7 @@
         <v>129</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>112</v>
@@ -5837,19 +5831,19 @@
         <v>585</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>586</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L5" s="24"/>
       <c r="M5" s="2"/>
@@ -5862,7 +5856,7 @@
         <v>130</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>112</v>
@@ -5874,30 +5868,30 @@
         <v>587</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>518</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L6" s="24"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>131</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>112</v>
@@ -5909,24 +5903,24 @@
         <v>163</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H7" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>1019</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>705</v>
-      </c>
       <c r="K7" s="8" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L7" s="24"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>591</v>
       </c>
@@ -5934,7 +5928,7 @@
         <v>132</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>112</v>
@@ -5943,33 +5937,33 @@
         <v>112</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>706</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>707</v>
-      </c>
       <c r="I8" s="8" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L8" s="24"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>1046</v>
+        <v>1029</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>112</v>
@@ -5981,19 +5975,19 @@
         <v>590</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I9" s="13" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>1037</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>697</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>1055</v>
       </c>
       <c r="L9" s="24"/>
       <c r="M9" s="2"/>
@@ -6006,7 +6000,7 @@
         <v>134</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>112</v>
@@ -6018,17 +6012,17 @@
         <v>592</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>593</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L10" s="24"/>
       <c r="M10" s="2"/>
@@ -6041,7 +6035,7 @@
         <v>135</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>112</v>
@@ -6050,22 +6044,22 @@
         <v>112</v>
       </c>
       <c r="F11" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>1009</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>757</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>1019</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>699</v>
-      </c>
       <c r="K11" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L11" s="24"/>
       <c r="M11" s="2"/>
@@ -6078,7 +6072,7 @@
         <v>136</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>112</v>
@@ -6087,22 +6081,22 @@
         <v>112</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>120</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>596</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L12" s="24" t="s">
         <v>595</v>
@@ -6117,7 +6111,7 @@
         <v>137</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>112</v>
@@ -6129,17 +6123,17 @@
         <v>118</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>1073</v>
+        <v>1113</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>121</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1123</v>
+        <v>1086</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>1053</v>
+        <v>1035</v>
       </c>
       <c r="L13" s="24" t="s">
         <v>597</v>
@@ -6154,7 +6148,7 @@
         <v>138</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>112</v>
@@ -6163,35 +6157,35 @@
         <v>112</v>
       </c>
       <c r="F14" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>714</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>1023</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>713</v>
-      </c>
       <c r="K14" s="9" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L14" s="24"/>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>112</v>
@@ -6203,17 +6197,17 @@
         <v>598</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>140</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L15" s="24"/>
       <c r="M15" s="2"/>
@@ -6226,7 +6220,7 @@
         <v>141</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>112</v>
@@ -6235,33 +6229,33 @@
         <v>112</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>599</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L16" s="24"/>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>112</v>
@@ -6273,19 +6267,19 @@
         <v>600</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>601</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>603</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L17" s="24" t="s">
         <v>602</v>
@@ -6297,10 +6291,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>112</v>
@@ -6312,17 +6306,17 @@
         <v>310</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L18" s="24"/>
       <c r="M18" s="2"/>
@@ -6335,7 +6329,7 @@
         <v>143</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>112</v>
@@ -6344,20 +6338,20 @@
         <v>112</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>1075</v>
+        <v>1051</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>164</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>1123</v>
+        <v>1086</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="14" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L19" s="24" t="s">
         <v>604</v>
@@ -6372,7 +6366,7 @@
         <v>144</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>112</v>
@@ -6382,32 +6376,32 @@
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>119</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>1119</v>
+        <v>1083</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>165</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>112</v>
@@ -6419,19 +6413,19 @@
         <v>166</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>185</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>1112</v>
+        <v>1077</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="L21" s="24"/>
       <c r="M21" s="2"/>
@@ -6444,7 +6438,7 @@
         <v>168</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>112</v>
@@ -6456,30 +6450,30 @@
         <v>269</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>1073</v>
+        <v>1113</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>167</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>1122</v>
+        <v>1085</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9" t="s">
-        <v>1052</v>
+        <v>1034</v>
       </c>
       <c r="L22" s="24"/>
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>606</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>112</v>
@@ -6491,20 +6485,20 @@
         <v>611</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>607</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>1113</v>
+        <v>1078</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9" t="s">
-        <v>1054</v>
+        <v>1036</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M23" s="2"/>
     </row>
@@ -6516,7 +6510,7 @@
         <v>145</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>112</v>
@@ -6528,20 +6522,20 @@
         <v>610</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>169</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>1114</v>
+        <v>1079</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9" t="s">
-        <v>1054</v>
+        <v>1036</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M24" s="2"/>
     </row>
@@ -6553,7 +6547,7 @@
         <v>146</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>112</v>
@@ -6565,20 +6559,20 @@
         <v>609</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>122</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>1114</v>
+        <v>1079</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9" t="s">
-        <v>1054</v>
+        <v>1036</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M25" s="2"/>
     </row>
@@ -6590,7 +6584,7 @@
         <v>147</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>148</v>
@@ -6602,32 +6596,32 @@
         <v>608</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>122</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>1114</v>
+        <v>1079</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9" t="s">
-        <v>1054</v>
+        <v>1036</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>149</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>112</v>
@@ -6639,19 +6633,19 @@
         <v>612</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>1038</v>
+        <v>1022</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L27" s="24"/>
       <c r="M27" s="1"/>
@@ -6664,7 +6658,7 @@
         <v>123</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1043</v>
+        <v>1026</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>150</v>
@@ -6676,32 +6670,32 @@
         <v>615</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>1076</v>
+        <v>1052</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>614</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>616</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L28" s="24"/>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>124</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>112</v>
@@ -6713,30 +6707,30 @@
         <v>617</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>1124</v>
+        <v>1087</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>1024</v>
+        <v>1118</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L29" s="24"/>
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>125</v>
@@ -6748,17 +6742,17 @@
         <v>618</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>1018</v>
+        <v>1108</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>417</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>1106</v>
+        <v>1115</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L30" s="24"/>
       <c r="M30" s="2"/>
@@ -6771,7 +6765,7 @@
         <v>619</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>112</v>
@@ -6781,17 +6775,17 @@
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="7" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>151</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>1119</v>
+        <v>1083</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="L31" s="24"/>
       <c r="M31" s="2"/>
@@ -6804,7 +6798,7 @@
         <v>171</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>112</v>
@@ -6813,22 +6807,22 @@
         <v>112</v>
       </c>
       <c r="F32" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>729</v>
       </c>
-      <c r="G32" s="11" t="s">
-        <v>1072</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>730</v>
-      </c>
       <c r="I32" s="16" t="s">
-        <v>1036</v>
+        <v>1020</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>621</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L32" s="24"/>
       <c r="M32" s="2"/>
@@ -6838,10 +6832,10 @@
         <v>307</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>112</v>
@@ -6853,17 +6847,17 @@
         <v>152</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>1018</v>
+        <v>1108</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>1062</v>
+        <v>1119</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L33" s="24"/>
       <c r="M33" s="2"/>
@@ -6876,7 +6870,7 @@
         <v>172</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>126</v>
@@ -6886,17 +6880,17 @@
         <v>622</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>1068</v>
+        <v>1047</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>173</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L34" s="24"/>
       <c r="M34" s="2"/>
@@ -6909,7 +6903,7 @@
         <v>174</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>112</v>
@@ -6918,25 +6912,25 @@
         <v>115</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>731</v>
+        <v>1101</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>1016</v>
+        <v>1112</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>127</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>1119</v>
+        <v>1083</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="L35" s="24"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>7</v>
       </c>
@@ -6944,7 +6938,7 @@
         <v>175</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>112</v>
@@ -6953,22 +6947,22 @@
         <v>112</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>625</v>
+        <v>1092</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>1016</v>
+        <v>1110</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>623</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J36" s="9" t="s">
         <v>624</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L36" s="24"/>
       <c r="M36" s="2"/>
@@ -6978,10 +6972,10 @@
         <v>196</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>112</v>
@@ -6993,17 +6987,17 @@
         <v>176</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>177</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>1119</v>
+        <v>1083</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="L37" s="24"/>
       <c r="M37" s="2"/>
@@ -7016,7 +7010,7 @@
         <v>178</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>154</v>
@@ -7025,20 +7019,20 @@
         <v>116</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>234</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>1119</v>
+        <v>1083</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="L38" s="24"/>
       <c r="M38" s="2"/>
@@ -7051,7 +7045,7 @@
         <v>179</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>155</v>
@@ -7060,20 +7054,20 @@
         <v>156</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>157</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>1119</v>
+        <v>1083</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="L39" s="24"/>
       <c r="M39" s="2"/>
@@ -7086,7 +7080,7 @@
         <v>180</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>159</v>
@@ -7095,20 +7089,20 @@
         <v>116</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>160</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L40" s="24"/>
       <c r="M40" s="2"/>
@@ -7121,7 +7115,7 @@
         <v>181</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>112</v>
@@ -7130,25 +7124,25 @@
         <v>112</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H41" s="21" t="s">
         <v>161</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>1061</v>
+        <v>1127</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L41" s="24" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M41" s="2"/>
     </row>
@@ -7157,10 +7151,10 @@
         <v>198</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>182</v>
@@ -7169,33 +7163,33 @@
         <v>117</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>1080</v>
+        <v>1055</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>1020</v>
+        <v>1120</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L42" s="24"/>
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>183</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>112</v>
@@ -7204,33 +7198,33 @@
         <v>112</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>1080</v>
+        <v>1055</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L43" s="24"/>
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>184</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>112</v>
@@ -7239,25 +7233,25 @@
         <v>112</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>1091</v>
+        <v>1062</v>
       </c>
       <c r="H44" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L44" s="24" t="s">
         <v>632</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>1027</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>1051</v>
-      </c>
-      <c r="L44" s="24" t="s">
-        <v>633</v>
       </c>
       <c r="M44" s="2"/>
     </row>
@@ -7269,7 +7263,7 @@
         <v>186</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>112</v>
@@ -7278,20 +7272,20 @@
         <v>112</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>1018</v>
+        <v>1108</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L45" s="24"/>
       <c r="M45" s="2"/>
@@ -7304,7 +7298,7 @@
         <v>187</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>188</v>
@@ -7313,33 +7307,33 @@
         <v>112</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>1075</v>
+        <v>1051</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>189</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L46" s="24"/>
       <c r="M46" s="2"/>
     </row>
     <row r="47" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>190</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>112</v>
@@ -7348,20 +7342,20 @@
         <v>112</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>1108</v>
+        <v>1074</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L47" s="24"/>
       <c r="M47" s="2"/>
@@ -7374,7 +7368,7 @@
         <v>192</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>1046</v>
+        <v>1029</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>112</v>
@@ -7386,34 +7380,34 @@
         <v>193</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H48" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L48" s="24" t="s">
         <v>636</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>1061</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>1051</v>
-      </c>
-      <c r="L48" s="24" t="s">
-        <v>637</v>
       </c>
       <c r="M48" s="2"/>
     </row>
     <row r="49" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>194</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>112</v>
@@ -7422,35 +7416,35 @@
         <v>112</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>1092</v>
+        <v>1121</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>1093</v>
+        <v>1063</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L49" s="24" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="M49" s="2"/>
     </row>
     <row r="50" spans="1:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>197</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>1046</v>
+        <v>1029</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>112</v>
@@ -7459,35 +7453,35 @@
         <v>112</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>1063</v>
+        <v>1044</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L50" s="24"/>
       <c r="M50" s="2"/>
     </row>
     <row r="51" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>200</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>199</v>
@@ -7499,30 +7493,30 @@
         <v>200</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>1080</v>
+        <v>1055</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>1020</v>
+        <v>1120</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L51" s="24"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>201</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>1047</v>
+        <v>1030</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>112</v>
@@ -7532,17 +7526,17 @@
       </c>
       <c r="F52" s="11"/>
       <c r="G52" s="11" t="s">
-        <v>1010</v>
+        <v>1122</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>1114</v>
+        <v>1079</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="21" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="L52" s="24"/>
       <c r="M52" s="2"/>
@@ -7555,7 +7549,7 @@
         <v>202</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>112</v>
@@ -7564,20 +7558,20 @@
         <v>112</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>1072</v>
+        <v>1112</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L53" s="24"/>
       <c r="M53" s="2"/>
@@ -7590,7 +7584,7 @@
         <v>203</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>112</v>
@@ -7599,22 +7593,22 @@
         <v>112</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H54" s="11" t="s">
         <v>316</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L54" s="24"/>
       <c r="M54" s="2"/>
@@ -7627,7 +7621,7 @@
         <v>204</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>1047</v>
+        <v>1030</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>112</v>
@@ -7636,20 +7630,20 @@
         <v>112</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>1069</v>
+        <v>1048</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="J55" s="9"/>
       <c r="K55" s="9" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L55" s="24"/>
       <c r="M55" s="2"/>
@@ -7662,7 +7656,7 @@
         <v>205</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>112</v>
@@ -7674,54 +7668,54 @@
         <v>206</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>206</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="J56" s="9"/>
       <c r="K56" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L56" s="24"/>
       <c r="M56" s="2"/>
     </row>
     <row r="57" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>207</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D57" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="F57" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J57" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="F57" s="11" t="s">
-        <v>726</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>1075</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>725</v>
-      </c>
-      <c r="I57" s="14" t="s">
-        <v>1021</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>651</v>
-      </c>
       <c r="K57" s="11" t="s">
-        <v>1054</v>
+        <v>1036</v>
       </c>
       <c r="L57" s="24"/>
       <c r="M57" s="2"/>
@@ -7734,7 +7728,7 @@
         <v>208</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>209</v>
@@ -7743,20 +7737,20 @@
         <v>112</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>1076</v>
+        <v>1052</v>
       </c>
       <c r="H58" s="11" t="s">
         <v>558</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L58" s="24"/>
       <c r="M58" s="2"/>
@@ -7769,7 +7763,7 @@
         <v>210</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>112</v>
@@ -7778,25 +7772,25 @@
         <v>112</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>1069</v>
+        <v>1048</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L59" s="24"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
         <v>235</v>
       </c>
@@ -7804,38 +7798,38 @@
         <v>211</v>
       </c>
       <c r="C60" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="G60" s="10" t="s">
         <v>1007</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>747</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>1014</v>
-      </c>
       <c r="H60" s="11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L60" s="24" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
         <v>212</v>
       </c>
@@ -7843,7 +7837,7 @@
         <v>213</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>112</v>
@@ -7852,20 +7846,20 @@
         <v>112</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>1040</v>
+        <v>1110</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>1107</v>
+        <v>1116</v>
       </c>
       <c r="J61" s="9"/>
       <c r="K61" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L61" s="24"/>
       <c r="M61" s="2"/>
@@ -7878,7 +7872,7 @@
         <v>214</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>112</v>
@@ -7887,25 +7881,25 @@
         <v>112</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="H62" s="11" t="s">
         <v>215</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J62" s="11" t="s">
         <v>216</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L62" s="24" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M62" s="2"/>
     </row>
@@ -7917,7 +7911,7 @@
         <v>217</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>218</v>
@@ -7926,20 +7920,20 @@
         <v>112</v>
       </c>
       <c r="F63" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H63" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="G63" s="11" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>659</v>
-      </c>
       <c r="I63" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J63" s="9"/>
       <c r="K63" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L63" s="24"/>
       <c r="M63" s="3"/>
@@ -7952,7 +7946,7 @@
         <v>418</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>112</v>
@@ -7961,20 +7955,20 @@
         <v>112</v>
       </c>
       <c r="F64" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H64" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="G64" s="11" t="s">
-        <v>1011</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>661</v>
-      </c>
       <c r="I64" s="8" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="J64" s="9"/>
       <c r="K64" s="9" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L64" s="24"/>
       <c r="M64" s="2"/>
@@ -7984,10 +7978,10 @@
         <v>221</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>220</v>
@@ -7996,20 +7990,20 @@
         <v>112</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L65" s="24"/>
       <c r="M65" s="2"/>
@@ -8022,7 +8016,7 @@
         <v>222</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>112</v>
@@ -8031,20 +8025,20 @@
         <v>112</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G66" s="11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I66" s="8" t="s">
         <v>1009</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>750</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>1019</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L66" s="24"/>
       <c r="M66" s="2"/>
@@ -8057,7 +8051,7 @@
         <v>223</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>112</v>
@@ -8066,37 +8060,37 @@
         <v>112</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="J67" s="9" t="s">
         <v>224</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>1056</v>
+        <v>1038</v>
       </c>
       <c r="L67" s="24" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>225</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>226</v>
@@ -8105,20 +8099,20 @@
         <v>117</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>1076</v>
+        <v>1052</v>
       </c>
       <c r="H68" s="11" t="s">
         <v>227</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L68" s="24"/>
       <c r="M68" s="2"/>
@@ -8131,7 +8125,7 @@
         <v>228</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>112</v>
@@ -8140,57 +8134,59 @@
         <v>112</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>1017</v>
+        <v>1110</v>
       </c>
       <c r="H69" s="11" t="s">
         <v>229</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>1029</v>
+        <v>1114</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L69" s="24" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M69" s="2"/>
     </row>
     <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>419</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D70" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="F70" s="11"/>
+      <c r="F70" s="11" t="s">
+        <v>1102</v>
+      </c>
       <c r="G70" s="11" t="s">
-        <v>1016</v>
+        <v>1103</v>
       </c>
       <c r="H70" s="11" t="s">
         <v>244</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>1115</v>
+        <v>1080</v>
       </c>
       <c r="J70" s="9"/>
       <c r="K70" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L70" s="24"/>
       <c r="M70" s="2"/>
@@ -8203,7 +8199,7 @@
         <v>236</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>112</v>
@@ -8212,22 +8208,22 @@
         <v>112</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>1072</v>
+        <v>1112</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>1120</v>
+        <v>1084</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L71" s="24"/>
       <c r="M71" s="2"/>
@@ -8240,7 +8236,7 @@
         <v>238</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>112</v>
@@ -8252,17 +8248,17 @@
         <v>237</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>1124</v>
+        <v>1087</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>569</v>
       </c>
       <c r="I72" s="14" t="s">
-        <v>1119</v>
+        <v>1083</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L72" s="24"/>
       <c r="M72" s="2"/>
@@ -8275,7 +8271,7 @@
         <v>239</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>112</v>
@@ -8284,20 +8280,20 @@
         <v>112</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>1094</v>
+        <v>1111</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>1109</v>
+        <v>1075</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L73" s="24"/>
       <c r="M73" s="2"/>
@@ -8310,7 +8306,7 @@
         <v>240</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>112</v>
@@ -8319,25 +8315,25 @@
         <v>112</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>1080</v>
+        <v>1055</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>1081</v>
+        <v>1056</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="J74" s="11" t="s">
         <v>242</v>
       </c>
       <c r="K74" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L74" s="24" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M74" s="2"/>
     </row>
@@ -8349,7 +8345,7 @@
         <v>243</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>112</v>
@@ -8358,20 +8354,20 @@
         <v>112</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H75" s="11" t="s">
         <v>567</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>1117</v>
+        <v>1081</v>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="9" t="s">
-        <v>1056</v>
+        <v>1038</v>
       </c>
       <c r="L75" s="24"/>
       <c r="M75" s="2"/>
@@ -8384,7 +8380,7 @@
         <v>245</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>112</v>
@@ -8393,20 +8389,20 @@
         <v>112</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="H76" s="11" t="s">
         <v>246</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J76" s="9"/>
       <c r="K76" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L76" s="24"/>
       <c r="M76" s="2"/>
@@ -8419,7 +8415,7 @@
         <v>248</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>112</v>
@@ -8431,17 +8427,17 @@
         <v>249</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H77" s="11" t="s">
         <v>247</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J77" s="9"/>
       <c r="K77" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L77" s="24"/>
       <c r="M77" s="2"/>
@@ -8454,7 +8450,7 @@
         <v>250</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>112</v>
@@ -8463,20 +8459,20 @@
         <v>112</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>1075</v>
+        <v>1051</v>
       </c>
       <c r="H78" s="11" t="s">
         <v>251</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>1122</v>
+        <v>1085</v>
       </c>
       <c r="J78" s="9"/>
       <c r="K78" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L78" s="24"/>
       <c r="M78" s="2"/>
@@ -8489,7 +8485,7 @@
         <v>252</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>112</v>
@@ -8498,20 +8494,20 @@
         <v>112</v>
       </c>
       <c r="F79" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H79" s="14" t="s">
         <v>673</v>
       </c>
-      <c r="G79" s="11" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H79" s="14" t="s">
-        <v>674</v>
-      </c>
       <c r="I79" s="8" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L79" s="24"/>
       <c r="M79" s="2"/>
@@ -8524,7 +8520,7 @@
         <v>253</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>112</v>
@@ -8533,20 +8529,20 @@
         <v>112</v>
       </c>
       <c r="F80" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H80" s="11" t="s">
         <v>675</v>
       </c>
-      <c r="G80" s="11" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>676</v>
-      </c>
       <c r="I80" s="8" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="11" t="s">
-        <v>1057</v>
+        <v>1039</v>
       </c>
       <c r="L80" s="24"/>
       <c r="M80" s="2"/>
@@ -8559,7 +8555,7 @@
         <v>254</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>255</v>
@@ -8568,20 +8564,20 @@
         <v>112</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H81" s="11" t="s">
         <v>256</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L81" s="24"/>
       <c r="M81" s="2"/>
@@ -8594,7 +8590,7 @@
         <v>258</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>112</v>
@@ -8603,20 +8599,20 @@
         <v>112</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="H82" s="11" t="s">
         <v>259</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="J82" s="9"/>
       <c r="K82" s="9" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L82" s="24"/>
       <c r="M82" s="2"/>
@@ -8629,7 +8625,7 @@
         <v>260</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>112</v>
@@ -8638,25 +8634,25 @@
         <v>112</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>1124</v>
+        <v>1087</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>1106</v>
+        <v>1115</v>
       </c>
       <c r="J83" s="11" t="s">
         <v>261</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>1054</v>
+        <v>1036</v>
       </c>
       <c r="L83" s="24" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="M83" s="2"/>
     </row>
@@ -8668,7 +8664,7 @@
         <v>284</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>112</v>
@@ -8680,19 +8676,19 @@
         <v>317</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>1031</v>
+        <v>1105</v>
       </c>
       <c r="H84" s="11" t="s">
         <v>262</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>1123</v>
+        <v>1086</v>
       </c>
       <c r="J84" s="11" t="s">
         <v>263</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L84" s="24"/>
       <c r="M84" s="2"/>
@@ -8705,7 +8701,7 @@
         <v>264</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>112</v>
@@ -8714,25 +8710,25 @@
         <v>112</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H85" s="11" t="s">
         <v>265</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J85" s="11" t="s">
         <v>266</v>
       </c>
       <c r="K85" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L85" s="24" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="M85" s="2"/>
     </row>
@@ -8744,7 +8740,7 @@
         <v>267</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>112</v>
@@ -8753,57 +8749,57 @@
         <v>112</v>
       </c>
       <c r="F86" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="I86" s="18" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J86" s="9" t="s">
         <v>778</v>
       </c>
-      <c r="G86" s="11" t="s">
-        <v>1072</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>779</v>
-      </c>
-      <c r="I86" s="18" t="s">
-        <v>1021</v>
-      </c>
-      <c r="J86" s="9" t="s">
-        <v>780</v>
-      </c>
       <c r="K86" s="9" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="L86" s="24"/>
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
+        <v>779</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H87" s="11" t="s">
         <v>781</v>
       </c>
-      <c r="B87" s="11" t="s">
-        <v>686</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>782</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>1072</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>783</v>
-      </c>
       <c r="I87" s="18" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L87" s="24"/>
       <c r="M87" s="3"/>
@@ -8816,7 +8812,7 @@
         <v>268</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>112</v>
@@ -8828,17 +8824,17 @@
         <v>501</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L88" s="24"/>
       <c r="M88" s="2"/>
@@ -8851,7 +8847,7 @@
         <v>270</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>1044</v>
+        <v>1027</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>112</v>
@@ -8860,20 +8856,20 @@
         <v>112</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="H89" s="11" t="s">
         <v>271</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>1108</v>
+        <v>1074</v>
       </c>
       <c r="J89" s="9"/>
       <c r="K89" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L89" s="24"/>
       <c r="M89" s="2"/>
@@ -8886,7 +8882,7 @@
         <v>272</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>274</v>
@@ -8895,25 +8891,25 @@
         <v>273</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>1070</v>
+        <v>1106</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>1038</v>
+        <v>1022</v>
       </c>
       <c r="J90" s="11" t="s">
         <v>275</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L90" s="24" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="M90" s="2"/>
     </row>
@@ -8925,7 +8921,7 @@
         <v>276</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>112</v>
@@ -8934,20 +8930,20 @@
         <v>112</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>1076</v>
+        <v>1052</v>
       </c>
       <c r="H91" s="11" t="s">
         <v>277</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="J91" s="9"/>
       <c r="K91" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L91" s="24"/>
       <c r="M91" s="2"/>
@@ -8960,7 +8956,7 @@
         <v>279</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>112</v>
@@ -8969,25 +8965,25 @@
         <v>112</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="I92" s="8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="K92" s="9" t="s">
         <v>1037</v>
       </c>
-      <c r="J92" s="11" t="s">
-        <v>791</v>
-      </c>
-      <c r="K92" s="9" t="s">
-        <v>1055</v>
-      </c>
       <c r="L92" s="24" t="s">
-        <v>1060</v>
+        <v>1042</v>
       </c>
       <c r="M92" s="2"/>
     </row>
@@ -8999,7 +8995,7 @@
         <v>280</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>112</v>
@@ -9008,25 +9004,25 @@
         <v>112</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J93" s="9" t="s">
         <v>281</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L93" s="24" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M93" s="2"/>
     </row>
@@ -9038,7 +9034,7 @@
         <v>282</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>283</v>
@@ -9047,20 +9043,20 @@
         <v>273</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="J94" s="9"/>
       <c r="K94" s="9" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L94" s="24"/>
       <c r="M94" s="2"/>
@@ -9073,7 +9069,7 @@
         <v>286</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>112</v>
@@ -9082,23 +9078,23 @@
         <v>112</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>1108</v>
+        <v>1074</v>
       </c>
       <c r="J95" s="9"/>
       <c r="K95" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L95" s="24" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="M95" s="2"/>
     </row>
@@ -9110,7 +9106,7 @@
         <v>288</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>112</v>
@@ -9119,23 +9115,23 @@
         <v>112</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H96" s="11" t="s">
         <v>287</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>1108</v>
+        <v>1074</v>
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L96" s="24" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="M96" s="2"/>
     </row>
@@ -9147,7 +9143,7 @@
         <v>289</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>112</v>
@@ -9159,17 +9155,17 @@
         <v>290</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="9" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L97" s="24"/>
       <c r="M97" s="2"/>
@@ -9182,7 +9178,7 @@
         <v>291</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>112</v>
@@ -9191,22 +9187,22 @@
         <v>112</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>1068</v>
+        <v>1047</v>
       </c>
       <c r="H98" s="11" t="s">
         <v>293</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="J98" s="9" t="s">
         <v>294</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L98" s="24"/>
       <c r="M98" s="2"/>
@@ -9219,7 +9215,7 @@
         <v>296</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>112</v>
@@ -9231,30 +9227,30 @@
         <v>295</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>1095</v>
+        <v>1110</v>
       </c>
       <c r="H99" s="11" t="s">
         <v>295</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>1093</v>
+        <v>1063</v>
       </c>
       <c r="J99" s="9"/>
       <c r="K99" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L99" s="24"/>
       <c r="M99" s="2"/>
     </row>
     <row r="100" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
-        <v>1041</v>
+        <v>1024</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>298</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>112</v>
@@ -9263,20 +9259,20 @@
         <v>112</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>1080</v>
+        <v>1055</v>
       </c>
       <c r="H100" s="11" t="s">
         <v>297</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="J100" s="9"/>
       <c r="K100" s="9" t="s">
-        <v>1057</v>
+        <v>1039</v>
       </c>
       <c r="L100" s="24"/>
       <c r="M100" s="2"/>
@@ -9289,7 +9285,7 @@
         <v>299</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>112</v>
@@ -9298,20 +9294,20 @@
         <v>112</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
       <c r="H101" s="11" t="s">
         <v>571</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>1119</v>
+        <v>1083</v>
       </c>
       <c r="J101" s="9"/>
       <c r="K101" s="9" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="L101" s="24"/>
       <c r="M101" s="2"/>
@@ -9324,7 +9320,7 @@
         <v>364</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>112</v>
@@ -9333,20 +9329,20 @@
         <v>112</v>
       </c>
       <c r="F102" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H102" s="11" t="s">
         <v>723</v>
       </c>
-      <c r="G102" s="7" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H102" s="11" t="s">
-        <v>724</v>
-      </c>
       <c r="I102" s="8" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="J102" s="9"/>
       <c r="K102" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L102" s="24"/>
       <c r="M102" s="2"/>
@@ -9359,7 +9355,7 @@
         <v>300</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>112</v>
@@ -9368,20 +9364,20 @@
         <v>112</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>804</v>
+        <v>1093</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>1016</v>
+        <v>1094</v>
       </c>
       <c r="H103" s="11" t="s">
         <v>318</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>1106</v>
+        <v>1115</v>
       </c>
       <c r="J103" s="9"/>
       <c r="K103" s="9" t="s">
-        <v>1054</v>
+        <v>1036</v>
       </c>
       <c r="L103" s="24"/>
       <c r="M103" s="2"/>
@@ -9391,10 +9387,10 @@
         <v>301</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>112</v>
@@ -9403,20 +9399,20 @@
         <v>112</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>1119</v>
+        <v>1083</v>
       </c>
       <c r="J104" s="9"/>
       <c r="K104" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L104" s="24"/>
       <c r="M104" s="2"/>
@@ -9429,7 +9425,7 @@
         <v>302</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>112</v>
@@ -9438,20 +9434,20 @@
         <v>112</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
       <c r="H105" s="11" t="s">
         <v>303</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>1119</v>
+        <v>1083</v>
       </c>
       <c r="J105" s="9"/>
       <c r="K105" s="9" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="L105" s="24"/>
       <c r="M105" s="2"/>
@@ -9464,7 +9460,7 @@
         <v>306</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>112</v>
@@ -9473,20 +9469,20 @@
         <v>112</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H106" s="11" t="s">
         <v>305</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J106" s="9"/>
       <c r="K106" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L106" s="24"/>
       <c r="M106" s="2"/>
@@ -9499,7 +9495,7 @@
         <v>308</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>112</v>
@@ -9508,20 +9504,20 @@
         <v>112</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="G107" s="22" t="s">
-        <v>1126</v>
+        <v>1089</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>1082</v>
+        <v>1057</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>1083</v>
+        <v>1123</v>
       </c>
       <c r="J107" s="9"/>
       <c r="K107" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L107" s="24"/>
       <c r="M107" s="2"/>
@@ -9534,7 +9530,7 @@
         <v>309</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>112</v>
@@ -9543,20 +9539,20 @@
         <v>112</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>1070</v>
+        <v>1106</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>1038</v>
+        <v>1022</v>
       </c>
       <c r="J108" s="9"/>
       <c r="K108" s="8" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L108" s="24"/>
       <c r="M108" s="2"/>
@@ -9569,7 +9565,7 @@
         <v>311</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>112</v>
@@ -9578,20 +9574,20 @@
         <v>112</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H109" s="11" t="s">
         <v>312</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>1116</v>
+        <v>1124</v>
       </c>
       <c r="J109" s="9"/>
       <c r="K109" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L109" s="24"/>
       <c r="M109" s="2"/>
@@ -9604,7 +9600,7 @@
         <v>319</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>112</v>
@@ -9613,20 +9609,20 @@
         <v>112</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>1076</v>
+        <v>1052</v>
       </c>
       <c r="H110" s="11" t="s">
         <v>320</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J110" s="9"/>
       <c r="K110" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L110" s="24"/>
       <c r="M110" s="2"/>
@@ -9639,7 +9635,7 @@
         <v>322</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>112</v>
@@ -9651,17 +9647,17 @@
         <v>323</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>1072</v>
+        <v>1112</v>
       </c>
       <c r="H111" s="11" t="s">
         <v>321</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>1064</v>
+        <v>1119</v>
       </c>
       <c r="J111" s="9"/>
       <c r="K111" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L111" s="24"/>
       <c r="M111" s="2"/>
@@ -9674,7 +9670,7 @@
         <v>324</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>112</v>
@@ -9683,20 +9679,20 @@
         <v>112</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H112" s="11" t="s">
         <v>325</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>1118</v>
+        <v>1082</v>
       </c>
       <c r="J112" s="9"/>
       <c r="K112" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L112" s="24"/>
       <c r="M112" s="2"/>
@@ -9709,7 +9705,7 @@
         <v>326</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>112</v>
@@ -9718,33 +9714,33 @@
         <v>112</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>1076</v>
+        <v>1052</v>
       </c>
       <c r="H113" s="11" t="s">
         <v>327</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="J113" s="9"/>
       <c r="K113" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L113" s="24"/>
       <c r="M113" s="2"/>
     </row>
     <row r="114" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>328</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>112</v>
@@ -9756,17 +9752,17 @@
         <v>329</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>1124</v>
+        <v>1087</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>1028</v>
+        <v>1115</v>
       </c>
       <c r="J114" s="9"/>
       <c r="K114" s="9" t="s">
-        <v>1057</v>
+        <v>1039</v>
       </c>
       <c r="L114" s="24"/>
       <c r="M114" s="2"/>
@@ -9779,7 +9775,7 @@
         <v>331</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>112</v>
@@ -9788,20 +9784,20 @@
         <v>112</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>816</v>
+        <v>1095</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>1016</v>
+        <v>1096</v>
       </c>
       <c r="H115" s="11" t="s">
         <v>332</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="J115" s="9"/>
       <c r="K115" s="8" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L115" s="24"/>
       <c r="M115" s="2"/>
@@ -9814,7 +9810,7 @@
         <v>337</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>112</v>
@@ -9823,20 +9819,20 @@
         <v>112</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>818</v>
+        <v>1097</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>1016</v>
+        <v>1098</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>1019</v>
+        <v>1099</v>
       </c>
       <c r="J116" s="9"/>
       <c r="K116" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L116" s="24"/>
       <c r="M116" s="2"/>
@@ -9849,7 +9845,7 @@
         <v>339</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>112</v>
@@ -9861,17 +9857,17 @@
         <v>338</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H117" s="11" t="s">
         <v>340</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>1118</v>
+        <v>1082</v>
       </c>
       <c r="J117" s="9"/>
       <c r="K117" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L117" s="24"/>
       <c r="M117" s="2"/>
@@ -9884,7 +9880,7 @@
         <v>341</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>112</v>
@@ -9896,17 +9892,17 @@
         <v>341</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>1073</v>
+        <v>1113</v>
       </c>
       <c r="H118" s="11" t="s">
         <v>342</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="J118" s="9"/>
       <c r="K118" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L118" s="24"/>
       <c r="M118" s="3"/>
@@ -9919,7 +9915,7 @@
         <v>343</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>112</v>
@@ -9931,17 +9927,17 @@
         <v>344</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>1073</v>
+        <v>1113</v>
       </c>
       <c r="H119" s="11" t="s">
         <v>345</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="J119" s="9"/>
       <c r="K119" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L119" s="24"/>
       <c r="M119" s="2"/>
@@ -9951,10 +9947,10 @@
         <v>46</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>112</v>
@@ -9966,17 +9962,17 @@
         <v>580</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>1124</v>
+        <v>1087</v>
       </c>
       <c r="H120" s="11" t="s">
         <v>521</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>1106</v>
+        <v>1115</v>
       </c>
       <c r="J120" s="9"/>
       <c r="K120" s="9" t="s">
-        <v>1054</v>
+        <v>1036</v>
       </c>
       <c r="L120" s="24"/>
       <c r="M120" s="2"/>
@@ -9989,7 +9985,7 @@
         <v>346</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>112</v>
@@ -9998,20 +9994,20 @@
         <v>112</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>1096</v>
+        <v>1064</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J121" s="9"/>
       <c r="K121" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L121" s="24"/>
       <c r="M121" s="3"/>
@@ -10024,7 +10020,7 @@
         <v>347</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>1044</v>
+        <v>1027</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>112</v>
@@ -10033,20 +10029,20 @@
         <v>112</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>1080</v>
+        <v>1055</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="J122" s="9"/>
       <c r="K122" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L122" s="24"/>
       <c r="M122" s="2"/>
@@ -10059,7 +10055,7 @@
         <v>348</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>112</v>
@@ -10068,20 +10064,20 @@
         <v>112</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>1076</v>
+        <v>1052</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="J123" s="9"/>
       <c r="K123" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L123" s="24"/>
       <c r="M123" s="2"/>
@@ -10094,7 +10090,7 @@
         <v>349</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>112</v>
@@ -10103,25 +10099,25 @@
         <v>112</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>1097</v>
+        <v>1065</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>1091</v>
+        <v>1062</v>
       </c>
       <c r="H124" s="11" t="s">
         <v>350</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="J124" s="11" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="K124" s="9" t="s">
-        <v>1057</v>
+        <v>1039</v>
       </c>
       <c r="L124" s="24" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="M124" s="2"/>
     </row>
@@ -10133,7 +10129,7 @@
         <v>352</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>112</v>
@@ -10145,17 +10141,17 @@
         <v>353</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>1018</v>
+        <v>1108</v>
       </c>
       <c r="H125" s="11" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="I125" s="14" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="J125" s="9"/>
       <c r="K125" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L125" s="24"/>
       <c r="M125" s="3"/>
@@ -10168,7 +10164,7 @@
         <v>354</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>112</v>
@@ -10177,20 +10173,20 @@
         <v>112</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>1075</v>
+        <v>1051</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>1029</v>
+        <v>1114</v>
       </c>
       <c r="J126" s="9"/>
       <c r="K126" s="8" t="s">
-        <v>1057</v>
+        <v>1039</v>
       </c>
       <c r="L126" s="24"/>
       <c r="M126" s="2"/>
@@ -10203,7 +10199,7 @@
         <v>355</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>112</v>
@@ -10215,17 +10211,17 @@
         <v>356</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="I127" s="8" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="J127" s="9"/>
       <c r="K127" s="9" t="s">
-        <v>1056</v>
+        <v>1038</v>
       </c>
       <c r="L127" s="24"/>
       <c r="M127" s="2"/>
@@ -10238,7 +10234,7 @@
         <v>357</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>112</v>
@@ -10247,20 +10243,20 @@
         <v>112</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>1071</v>
+        <v>1049</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="I128" s="8" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="J128" s="9"/>
       <c r="K128" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L128" s="24"/>
       <c r="M128" s="2"/>
@@ -10273,7 +10269,7 @@
         <v>358</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>112</v>
@@ -10283,17 +10279,17 @@
       </c>
       <c r="F129" s="5"/>
       <c r="G129" s="7" t="s">
-        <v>1032</v>
+        <v>1104</v>
       </c>
       <c r="H129" s="11" t="s">
         <v>359</v>
       </c>
       <c r="I129" s="8" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="J129" s="9"/>
       <c r="K129" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L129" s="24"/>
       <c r="M129" s="2"/>
@@ -10306,7 +10302,7 @@
         <v>360</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>361</v>
@@ -10315,20 +10311,20 @@
         <v>362</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J130" s="9"/>
       <c r="K130" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L130" s="24"/>
       <c r="M130" s="2"/>
@@ -10341,7 +10337,7 @@
         <v>363</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>112</v>
@@ -10350,20 +10346,20 @@
         <v>112</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>1119</v>
+        <v>1083</v>
       </c>
       <c r="J131" s="9"/>
       <c r="K131" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L131" s="24"/>
       <c r="M131" s="2"/>
@@ -10376,7 +10372,7 @@
         <v>365</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>1059</v>
+        <v>1041</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>112</v>
@@ -10385,22 +10381,22 @@
         <v>112</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="G132" s="21" t="s">
-        <v>1072</v>
+        <v>1112</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="K132" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L132" s="24"/>
       <c r="M132" s="2"/>
@@ -10413,7 +10409,7 @@
         <v>366</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>112</v>
@@ -10422,20 +10418,20 @@
         <v>112</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J133" s="9"/>
       <c r="K133" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L133" s="24"/>
       <c r="M133" s="2"/>
@@ -10448,7 +10444,7 @@
         <v>367</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>112</v>
@@ -10457,20 +10453,20 @@
         <v>112</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>1075</v>
+        <v>1051</v>
       </c>
       <c r="H134" s="11" t="s">
         <v>368</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="J134" s="9"/>
       <c r="K134" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L134" s="24"/>
       <c r="M134" s="2"/>
@@ -10483,7 +10479,7 @@
         <v>369</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>112</v>
@@ -10492,22 +10488,22 @@
         <v>112</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>1072</v>
+        <v>1112</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>1114</v>
+        <v>1079</v>
       </c>
       <c r="J135" s="9" t="s">
         <v>575</v>
       </c>
       <c r="K135" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L135" s="24"/>
       <c r="M135" s="2"/>
@@ -10520,7 +10516,7 @@
         <v>370</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>112</v>
@@ -10532,17 +10528,17 @@
         <v>371</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H136" s="11" t="s">
         <v>372</v>
       </c>
       <c r="I136" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J136" s="9"/>
       <c r="K136" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L136" s="24"/>
       <c r="M136" s="2"/>
@@ -10555,7 +10551,7 @@
         <v>373</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>112</v>
@@ -10564,20 +10560,20 @@
         <v>112</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H137" s="11" t="s">
         <v>374</v>
       </c>
       <c r="I137" s="8" t="s">
-        <v>1038</v>
+        <v>1022</v>
       </c>
       <c r="J137" s="9"/>
       <c r="K137" s="9" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L137" s="24"/>
       <c r="M137" s="2"/>
@@ -10590,7 +10586,7 @@
         <v>375</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>112</v>
@@ -10599,20 +10595,20 @@
         <v>112</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>1080</v>
+        <v>1055</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="I138" s="8" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="J138" s="9"/>
       <c r="K138" s="9" t="s">
-        <v>1057</v>
+        <v>1039</v>
       </c>
       <c r="L138" s="24"/>
       <c r="M138" s="2"/>
@@ -10625,32 +10621,32 @@
         <v>377</v>
       </c>
       <c r="C139" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="G139" s="11" t="s">
         <v>1007</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F139" s="11" t="s">
-        <v>850</v>
-      </c>
-      <c r="G139" s="11" t="s">
-        <v>1014</v>
-      </c>
       <c r="H139" s="11" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="I139" s="14" t="s">
-        <v>1118</v>
+        <v>1082</v>
       </c>
       <c r="J139" s="9"/>
       <c r="K139" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L139" s="24" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="M139" s="2"/>
     </row>
@@ -10662,7 +10658,7 @@
         <v>378</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>112</v>
@@ -10671,20 +10667,20 @@
         <v>112</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>1084</v>
+        <v>1058</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>1128</v>
+        <v>1091</v>
       </c>
       <c r="H140" s="11" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="I140" s="8" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="J140" s="9"/>
       <c r="K140" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L140" s="24"/>
       <c r="M140" s="2"/>
@@ -10694,10 +10690,10 @@
         <v>59</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>112</v>
@@ -10706,22 +10702,22 @@
         <v>112</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>1124</v>
+        <v>1087</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="I141" s="14" t="s">
-        <v>1108</v>
+        <v>1074</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="K141" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L141" s="24"/>
       <c r="M141" s="2"/>
@@ -10734,7 +10730,7 @@
         <v>380</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>382</v>
@@ -10743,20 +10739,20 @@
         <v>381</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>1032</v>
+        <v>1104</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="J142" s="11"/>
       <c r="K142" s="11" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L142" s="24"/>
       <c r="M142" s="2"/>
@@ -10769,7 +10765,7 @@
         <v>383</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>112</v>
@@ -10778,25 +10774,25 @@
         <v>112</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="I143" s="8" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="J143" s="9" t="s">
         <v>384</v>
       </c>
       <c r="K143" s="9" t="s">
-        <v>1057</v>
+        <v>1039</v>
       </c>
       <c r="L143" s="24" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="M143" s="2"/>
     </row>
@@ -10808,32 +10804,32 @@
         <v>385</v>
       </c>
       <c r="C144" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="G144" s="11" t="s">
         <v>1007</v>
       </c>
-      <c r="D144" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F144" s="11" t="s">
-        <v>860</v>
-      </c>
-      <c r="G144" s="11" t="s">
-        <v>1014</v>
-      </c>
       <c r="H144" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="I144" s="14" t="s">
-        <v>1112</v>
+        <v>1077</v>
       </c>
       <c r="J144" s="9"/>
       <c r="K144" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L144" s="24" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="M144" s="2"/>
     </row>
@@ -10845,7 +10841,7 @@
         <v>386</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>112</v>
@@ -10854,22 +10850,22 @@
         <v>112</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H145" s="11" t="s">
         <v>387</v>
       </c>
       <c r="I145" s="8" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="J145" s="9" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="K145" s="9" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L145" s="24"/>
       <c r="M145" s="2"/>
@@ -10882,7 +10878,7 @@
         <v>388</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>390</v>
@@ -10891,20 +10887,20 @@
         <v>391</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="H146" s="11" t="s">
         <v>389</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>1119</v>
+        <v>1083</v>
       </c>
       <c r="J146" s="9"/>
       <c r="K146" s="9" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="L146" s="24"/>
       <c r="M146" s="2"/>
@@ -10917,29 +10913,29 @@
         <v>392</v>
       </c>
       <c r="C147" s="6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="G147" s="11" t="s">
         <v>1047</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F147" s="11" t="s">
-        <v>866</v>
-      </c>
-      <c r="G147" s="11" t="s">
-        <v>1068</v>
       </c>
       <c r="H147" s="11" t="s">
         <v>393</v>
       </c>
       <c r="I147" s="8" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="J147" s="9"/>
       <c r="K147" s="9" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L147" s="24"/>
       <c r="M147" s="2"/>
@@ -10952,7 +10948,7 @@
         <v>395</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>112</v>
@@ -10961,22 +10957,22 @@
         <v>112</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H148" s="11" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="I148" s="8" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="J148" s="9" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="K148" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L148" s="24"/>
       <c r="M148" s="2"/>
@@ -10989,7 +10985,7 @@
         <v>396</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>112</v>
@@ -10998,20 +10994,20 @@
         <v>112</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="H149" s="11" t="s">
         <v>561</v>
       </c>
       <c r="I149" s="14" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="J149" s="9"/>
       <c r="K149" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L149" s="24"/>
       <c r="M149" s="2"/>
@@ -11024,7 +11020,7 @@
         <v>398</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>112</v>
@@ -11033,25 +11029,25 @@
         <v>112</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>1099</v>
+        <v>1067</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H150" s="11" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="I150" s="8" t="s">
-        <v>1119</v>
+        <v>1083</v>
       </c>
       <c r="J150" s="9" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="K150" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L150" s="24" t="s">
-        <v>1098</v>
+        <v>1066</v>
       </c>
       <c r="M150" s="2"/>
     </row>
@@ -11063,7 +11059,7 @@
         <v>400</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>112</v>
@@ -11072,22 +11068,22 @@
         <v>112</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>1075</v>
+        <v>1051</v>
       </c>
       <c r="H151" s="11" t="s">
         <v>401</v>
       </c>
       <c r="I151" s="8" t="s">
-        <v>1038</v>
+        <v>1022</v>
       </c>
       <c r="J151" s="9" t="s">
         <v>578</v>
       </c>
       <c r="K151" s="9" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L151" s="24"/>
       <c r="M151" s="2"/>
@@ -11100,7 +11096,7 @@
         <v>402</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>112</v>
@@ -11109,33 +11105,33 @@
         <v>112</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H152" s="11" t="s">
         <v>403</v>
       </c>
       <c r="I152" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J152" s="9"/>
       <c r="K152" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L152" s="24"/>
       <c r="M152" s="2"/>
     </row>
     <row r="153" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="21" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B153" s="9" t="s">
         <v>562</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>112</v>
@@ -11144,20 +11140,20 @@
         <v>112</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>1032</v>
+        <v>1104</v>
       </c>
       <c r="H153" s="11" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="I153" s="8" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="J153" s="9"/>
       <c r="K153" s="9" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="L153" s="24"/>
       <c r="M153" s="2"/>
@@ -11170,7 +11166,7 @@
         <v>404</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>405</v>
@@ -11179,20 +11175,20 @@
         <v>112</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>1127</v>
+        <v>1090</v>
       </c>
       <c r="H154" s="11" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="I154" s="8" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="J154" s="9"/>
       <c r="K154" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L154" s="24"/>
       <c r="M154" s="2"/>
@@ -11205,7 +11201,7 @@
         <v>406</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>112</v>
@@ -11214,20 +11210,20 @@
         <v>112</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>1086</v>
+        <v>1060</v>
       </c>
       <c r="H155" s="11" t="s">
         <v>407</v>
       </c>
       <c r="I155" s="8" t="s">
-        <v>1085</v>
+        <v>1059</v>
       </c>
       <c r="J155" s="9"/>
       <c r="K155" s="9" t="s">
-        <v>1057</v>
+        <v>1039</v>
       </c>
       <c r="L155" s="24"/>
       <c r="M155" s="2"/>
@@ -11240,7 +11236,7 @@
         <v>408</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>112</v>
@@ -11252,17 +11248,17 @@
         <v>409</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>1031</v>
+        <v>1105</v>
       </c>
       <c r="H156" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I156" s="8" t="s">
-        <v>1038</v>
+        <v>1022</v>
       </c>
       <c r="J156" s="9"/>
       <c r="K156" s="9" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L156" s="24"/>
       <c r="M156" s="2"/>
@@ -11275,7 +11271,7 @@
         <v>410</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>112</v>
@@ -11287,17 +11283,17 @@
         <v>411</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>1076</v>
+        <v>1052</v>
       </c>
       <c r="H157" s="11" t="s">
         <v>412</v>
       </c>
       <c r="I157" s="8" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="J157" s="9"/>
       <c r="K157" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L157" s="24"/>
       <c r="M157" s="2"/>
@@ -11310,7 +11306,7 @@
         <v>413</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>112</v>
@@ -11319,20 +11315,20 @@
         <v>112</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>1018</v>
+        <v>1108</v>
       </c>
       <c r="H158" s="11" t="s">
         <v>414</v>
       </c>
       <c r="I158" s="8" t="s">
-        <v>1119</v>
+        <v>1083</v>
       </c>
       <c r="J158" s="9"/>
       <c r="K158" s="9" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="L158" s="24"/>
       <c r="M158" s="2"/>
@@ -11345,7 +11341,7 @@
         <v>415</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>1046</v>
+        <v>1029</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>112</v>
@@ -11354,20 +11350,20 @@
         <v>112</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="G159" s="11" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="I159" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J159" s="9"/>
       <c r="K159" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L159" s="24"/>
       <c r="M159" s="2"/>
@@ -11380,7 +11376,7 @@
         <v>416</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>112</v>
@@ -11389,20 +11385,20 @@
         <v>112</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>1102</v>
+        <v>1070</v>
       </c>
       <c r="G160" s="11" t="s">
-        <v>1100</v>
+        <v>1068</v>
       </c>
       <c r="H160" s="11" t="s">
-        <v>1101</v>
+        <v>1069</v>
       </c>
       <c r="I160" s="8" t="s">
-        <v>1108</v>
+        <v>1074</v>
       </c>
       <c r="J160" s="9"/>
       <c r="K160" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L160" s="24"/>
       <c r="M160" s="2"/>
@@ -11415,7 +11411,7 @@
         <v>422</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>423</v>
@@ -11424,20 +11420,20 @@
         <v>424</v>
       </c>
       <c r="F161" s="11" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="G161" s="11" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="H161" s="11" t="s">
         <v>425</v>
       </c>
       <c r="I161" s="8" t="s">
-        <v>1108</v>
+        <v>1074</v>
       </c>
       <c r="J161" s="9"/>
       <c r="K161" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L161" s="24"/>
       <c r="M161" s="2"/>
@@ -11450,7 +11446,7 @@
         <v>427</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>112</v>
@@ -11459,20 +11455,20 @@
         <v>112</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>1125</v>
+        <v>1088</v>
       </c>
       <c r="H162" s="11" t="s">
         <v>428</v>
       </c>
       <c r="I162" s="8" t="s">
-        <v>1106</v>
+        <v>1115</v>
       </c>
       <c r="J162" s="9"/>
       <c r="K162" s="9" t="s">
-        <v>1054</v>
+        <v>1036</v>
       </c>
       <c r="L162" s="24"/>
       <c r="M162" s="2"/>
@@ -11482,10 +11478,10 @@
         <v>74</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>112</v>
@@ -11494,20 +11490,20 @@
         <v>112</v>
       </c>
       <c r="F163" s="11" t="s">
-        <v>1104</v>
+        <v>1072</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H163" s="11" t="s">
-        <v>1103</v>
+        <v>1071</v>
       </c>
       <c r="I163" s="8" t="s">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="J163" s="9"/>
       <c r="K163" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L163" s="24"/>
       <c r="M163" s="2"/>
@@ -11520,7 +11516,7 @@
         <v>429</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>112</v>
@@ -11529,20 +11525,20 @@
         <v>112</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>885</v>
+        <v>1100</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>1016</v>
+        <v>1108</v>
       </c>
       <c r="H164" s="11" t="s">
         <v>430</v>
       </c>
       <c r="I164" s="8" t="s">
-        <v>1106</v>
+        <v>1115</v>
       </c>
       <c r="J164" s="9"/>
       <c r="K164" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L164" s="24"/>
       <c r="M164" s="2"/>
@@ -11555,32 +11551,32 @@
         <v>431</v>
       </c>
       <c r="C165" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F165" s="11" t="s">
+        <v>880</v>
+      </c>
+      <c r="G165" s="11" t="s">
         <v>1007</v>
       </c>
-      <c r="D165" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E165" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F165" s="11" t="s">
-        <v>886</v>
-      </c>
-      <c r="G165" s="11" t="s">
-        <v>1014</v>
-      </c>
       <c r="H165" s="11" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="I165" s="8" t="s">
-        <v>1118</v>
+        <v>1082</v>
       </c>
       <c r="J165" s="9"/>
       <c r="K165" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L165" s="24" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="M165" s="2"/>
     </row>
@@ -11592,7 +11588,7 @@
         <v>433</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>112</v>
@@ -11601,25 +11597,25 @@
         <v>112</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="G166" s="11" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="H166" s="11" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="I166" s="8" t="s">
-        <v>1106</v>
+        <v>1115</v>
       </c>
       <c r="J166" s="9" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="K166" s="9" t="s">
-        <v>1054</v>
+        <v>1036</v>
       </c>
       <c r="L166" s="24" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="M166" s="2"/>
     </row>
@@ -11631,7 +11627,7 @@
         <v>435</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>112</v>
@@ -11643,22 +11639,22 @@
         <v>436</v>
       </c>
       <c r="G167" s="11" t="s">
-        <v>1076</v>
+        <v>1052</v>
       </c>
       <c r="H167" s="11" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="I167" s="8" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="J167" s="9"/>
       <c r="K167" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L167" s="24"/>
       <c r="M167" s="2"/>
     </row>
-    <row r="168" spans="1:13" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="21" t="s">
         <v>440</v>
       </c>
@@ -11666,7 +11662,7 @@
         <v>437</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>438</v>
@@ -11675,20 +11671,20 @@
         <v>273</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G168" s="11" t="s">
-        <v>1070</v>
+        <v>1106</v>
       </c>
       <c r="H168" s="11" t="s">
         <v>439</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J168" s="9"/>
       <c r="K168" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L168" s="24"/>
       <c r="M168" s="2"/>
@@ -11701,7 +11697,7 @@
         <v>441</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>112</v>
@@ -11710,22 +11706,22 @@
         <v>112</v>
       </c>
       <c r="F169" s="11" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>1068</v>
+        <v>1047</v>
       </c>
       <c r="H169" s="11" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J169" s="9" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="K169" s="9" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L169" s="24"/>
       <c r="M169" s="2"/>
@@ -11738,7 +11734,7 @@
         <v>442</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>112</v>
@@ -11747,20 +11743,20 @@
         <v>112</v>
       </c>
       <c r="F170" s="11" t="s">
-        <v>1078</v>
+        <v>1053</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
       <c r="H170" s="11" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>1119</v>
+        <v>1083</v>
       </c>
       <c r="J170" s="9"/>
       <c r="K170" s="9" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="L170" s="24"/>
       <c r="M170" s="2"/>
@@ -11773,7 +11769,7 @@
         <v>443</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>112</v>
@@ -11782,20 +11778,20 @@
         <v>112</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="G171" s="11" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H171" s="11" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>1108</v>
+        <v>1074</v>
       </c>
       <c r="J171" s="9"/>
       <c r="K171" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L171" s="24"/>
       <c r="M171" s="2"/>
@@ -11808,7 +11804,7 @@
         <v>444</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>112</v>
@@ -11817,25 +11813,25 @@
         <v>112</v>
       </c>
       <c r="F172" s="11" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
       <c r="H172" s="11" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>1110</v>
+        <v>1076</v>
       </c>
       <c r="J172" s="11" t="s">
         <v>446</v>
       </c>
       <c r="K172" s="9" t="s">
-        <v>1056</v>
+        <v>1038</v>
       </c>
       <c r="L172" s="24" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="M172" s="2"/>
     </row>
@@ -11847,7 +11843,7 @@
         <v>447</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>112</v>
@@ -11856,20 +11852,20 @@
         <v>112</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>1068</v>
+        <v>1047</v>
       </c>
       <c r="H173" s="11" t="s">
         <v>448</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="J173" s="9"/>
       <c r="K173" s="9" t="s">
-        <v>1056</v>
+        <v>1038</v>
       </c>
       <c r="L173" s="24"/>
       <c r="M173" s="2"/>
@@ -11882,7 +11878,7 @@
         <v>449</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>112</v>
@@ -11891,20 +11887,20 @@
         <v>112</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H174" s="11" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="J174" s="9"/>
       <c r="K174" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L174" s="24"/>
       <c r="M174" s="2"/>
@@ -11917,7 +11913,7 @@
         <v>450</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>112</v>
@@ -11926,25 +11922,25 @@
         <v>112</v>
       </c>
       <c r="F175" s="11" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H175" s="11" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="J175" s="9" t="s">
         <v>451</v>
       </c>
       <c r="K175" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L175" s="24" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="M175" s="2"/>
     </row>
@@ -11956,7 +11952,7 @@
         <v>452</v>
       </c>
       <c r="C176" s="22" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>112</v>
@@ -11968,17 +11964,17 @@
         <v>453</v>
       </c>
       <c r="G176" s="11" t="s">
-        <v>1124</v>
+        <v>1087</v>
       </c>
       <c r="H176" s="11" t="s">
         <v>563</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>1106</v>
+        <v>1115</v>
       </c>
       <c r="J176" s="9"/>
       <c r="K176" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L176" s="24"/>
       <c r="M176" s="2"/>
@@ -11991,7 +11987,7 @@
         <v>454</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>112</v>
@@ -12000,23 +11996,23 @@
         <v>112</v>
       </c>
       <c r="F177" s="11" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="G177" s="11" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H177" s="11" t="s">
         <v>455</v>
       </c>
       <c r="I177" s="14" t="s">
-        <v>1118</v>
+        <v>1082</v>
       </c>
       <c r="J177" s="9"/>
       <c r="K177" s="9" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="L177" s="24" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="M177" s="2"/>
     </row>
@@ -12028,7 +12024,7 @@
         <v>456</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>112</v>
@@ -12037,20 +12033,20 @@
         <v>112</v>
       </c>
       <c r="F178" s="11" t="s">
-        <v>1079</v>
+        <v>1054</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
       <c r="H178" s="11" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="I178" s="14" t="s">
-        <v>1036</v>
+        <v>1020</v>
       </c>
       <c r="J178" s="9"/>
       <c r="K178" s="9" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L178" s="24"/>
       <c r="M178" s="2"/>
@@ -12063,7 +12059,7 @@
         <v>457</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>112</v>
@@ -12072,25 +12068,25 @@
         <v>112</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="G179" s="11" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="H179" s="11" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="I179" s="8" t="s">
-        <v>1114</v>
+        <v>1079</v>
       </c>
       <c r="J179" s="9" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="K179" s="9" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="L179" s="24" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="M179" s="2"/>
     </row>
@@ -12102,7 +12098,7 @@
         <v>459</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>112</v>
@@ -12111,22 +12107,22 @@
         <v>112</v>
       </c>
       <c r="F180" s="11" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="G180" s="11" t="s">
-        <v>1075</v>
+        <v>1051</v>
       </c>
       <c r="H180" s="11" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="I180" s="8" t="s">
-        <v>1114</v>
+        <v>1079</v>
       </c>
       <c r="J180" s="9" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="K180" s="9" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="L180" s="24"/>
       <c r="M180" s="2"/>
@@ -12139,7 +12135,7 @@
         <v>460</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>112</v>
@@ -12148,22 +12144,22 @@
         <v>112</v>
       </c>
       <c r="F181" s="11" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="G181" s="11" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="H181" s="11" t="s">
         <v>564</v>
       </c>
       <c r="I181" s="14" t="s">
-        <v>1106</v>
+        <v>1115</v>
       </c>
       <c r="J181" s="11" t="s">
         <v>461</v>
       </c>
       <c r="K181" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L181" s="24"/>
       <c r="M181" s="2"/>
@@ -12176,7 +12172,7 @@
         <v>462</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>1047</v>
+        <v>1030</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>112</v>
@@ -12188,17 +12184,17 @@
         <v>463</v>
       </c>
       <c r="G182" s="11" t="s">
-        <v>1124</v>
+        <v>1087</v>
       </c>
       <c r="H182" s="11" t="s">
         <v>464</v>
       </c>
       <c r="I182" s="8" t="s">
-        <v>1107</v>
+        <v>1116</v>
       </c>
       <c r="J182" s="9"/>
       <c r="K182" s="9" t="s">
-        <v>1054</v>
+        <v>1036</v>
       </c>
       <c r="L182" s="24"/>
       <c r="M182" s="2"/>
@@ -12211,7 +12207,7 @@
         <v>465</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>112</v>
@@ -12220,25 +12216,25 @@
         <v>112</v>
       </c>
       <c r="F183" s="11" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="G183" s="11" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="H183" s="11" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="I183" s="8" t="s">
-        <v>1108</v>
+        <v>1074</v>
       </c>
       <c r="J183" s="11" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="K183" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L183" s="24" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="M183" s="2"/>
     </row>
@@ -12250,7 +12246,7 @@
         <v>467</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D184" s="5" t="s">
         <v>112</v>
@@ -12262,32 +12258,32 @@
         <v>468</v>
       </c>
       <c r="G184" s="11" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H184" s="11" t="s">
         <v>469</v>
       </c>
       <c r="I184" s="8" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="J184" s="11" t="s">
         <v>470</v>
       </c>
       <c r="K184" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L184" s="24"/>
       <c r="M184" s="2"/>
     </row>
     <row r="185" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B185" s="11" t="s">
         <v>471</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D185" s="5" t="s">
         <v>112</v>
@@ -12296,22 +12292,22 @@
         <v>112</v>
       </c>
       <c r="F185" s="11" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="G185" s="11" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H185" s="11" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="I185" s="8" t="s">
-        <v>1038</v>
+        <v>1022</v>
       </c>
       <c r="J185" s="9" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="K185" s="9" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L185" s="24"/>
       <c r="M185" s="3"/>
@@ -12324,7 +12320,7 @@
         <v>472</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>112</v>
@@ -12333,20 +12329,20 @@
         <v>112</v>
       </c>
       <c r="F186" s="11" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="G186" s="11" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="H186" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I186" s="8" t="s">
-        <v>1106</v>
+        <v>1115</v>
       </c>
       <c r="J186" s="9"/>
       <c r="K186" s="9" t="s">
-        <v>1054</v>
+        <v>1036</v>
       </c>
       <c r="L186" s="24" t="s">
         <v>474</v>
@@ -12361,7 +12357,7 @@
         <v>478</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>1046</v>
+        <v>1029</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>112</v>
@@ -12373,17 +12369,17 @@
         <v>479</v>
       </c>
       <c r="G187" s="11" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H187" s="11" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="I187" s="8" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="J187" s="9"/>
       <c r="K187" s="9" t="s">
-        <v>1056</v>
+        <v>1038</v>
       </c>
       <c r="L187" s="24"/>
       <c r="M187" s="2"/>
@@ -12396,7 +12392,7 @@
         <v>522</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>112</v>
@@ -12405,20 +12401,20 @@
         <v>112</v>
       </c>
       <c r="F188" s="9" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="G188" s="10" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="H188" s="11"/>
       <c r="I188" s="10" t="s">
-        <v>1036</v>
+        <v>1020</v>
       </c>
       <c r="J188" s="9" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="K188" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L188" s="24"/>
       <c r="M188" s="2"/>
@@ -12431,7 +12427,7 @@
         <v>480</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>112</v>
@@ -12440,22 +12436,22 @@
         <v>112</v>
       </c>
       <c r="F189" s="11" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>1048</v>
+        <v>1109</v>
       </c>
       <c r="H189" s="11" t="s">
         <v>481</v>
       </c>
       <c r="I189" s="10" t="s">
-        <v>1036</v>
+        <v>1020</v>
       </c>
       <c r="J189" s="11" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="K189" s="9" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L189" s="24"/>
       <c r="M189" s="2"/>
@@ -12468,7 +12464,7 @@
         <v>482</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>483</v>
@@ -12480,17 +12476,17 @@
         <v>485</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>1087</v>
+        <v>1107</v>
       </c>
       <c r="H190" s="11" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="I190" s="8" t="s">
-        <v>1039</v>
+        <v>1023</v>
       </c>
       <c r="J190" s="9"/>
       <c r="K190" s="9" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L190" s="24"/>
       <c r="M190" s="2"/>
@@ -12503,7 +12499,7 @@
         <v>486</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>112</v>
@@ -12512,23 +12508,23 @@
         <v>112</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G191" s="10" t="s">
-        <v>1080</v>
+        <v>1055</v>
       </c>
       <c r="H191" s="11" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I191" s="14" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="J191" s="9"/>
       <c r="K191" s="9" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="L191" s="24" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M191" s="2"/>
     </row>
@@ -12540,7 +12536,7 @@
         <v>487</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>112</v>
@@ -12549,20 +12545,20 @@
         <v>112</v>
       </c>
       <c r="F192" s="9" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="G192" s="11" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H192" s="11" t="s">
         <v>488</v>
       </c>
       <c r="I192" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J192" s="9"/>
       <c r="K192" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L192" s="24"/>
       <c r="M192" s="2"/>
@@ -12575,7 +12571,7 @@
         <v>489</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>1045</v>
+        <v>1028</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>112</v>
@@ -12584,20 +12580,20 @@
         <v>112</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>1100</v>
+        <v>1068</v>
       </c>
       <c r="H193" s="11" t="s">
         <v>491</v>
       </c>
       <c r="I193" s="14" t="s">
-        <v>1108</v>
+        <v>1074</v>
       </c>
       <c r="J193" s="9"/>
       <c r="K193" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L193" s="24"/>
       <c r="M193" s="2"/>
@@ -12610,7 +12606,7 @@
         <v>492</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>112</v>
@@ -12619,22 +12615,22 @@
         <v>112</v>
       </c>
       <c r="F194" s="11" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>1100</v>
+        <v>1068</v>
       </c>
       <c r="H194" s="11" t="s">
         <v>493</v>
       </c>
       <c r="I194" s="14" t="s">
-        <v>1108</v>
+        <v>1074</v>
       </c>
       <c r="J194" s="9" t="s">
         <v>579</v>
       </c>
       <c r="K194" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L194" s="24"/>
       <c r="M194" s="2"/>
@@ -12647,7 +12643,7 @@
         <v>494</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>112</v>
@@ -12656,20 +12652,20 @@
         <v>112</v>
       </c>
       <c r="F195" s="11" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="G195" s="11" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H195" s="11" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="I195" s="14" t="s">
-        <v>1038</v>
+        <v>1022</v>
       </c>
       <c r="J195" s="9"/>
       <c r="K195" s="9" t="s">
-        <v>1056</v>
+        <v>1038</v>
       </c>
       <c r="L195" s="24"/>
       <c r="M195" s="2"/>
@@ -12682,7 +12678,7 @@
         <v>495</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>112</v>
@@ -12691,35 +12687,35 @@
         <v>112</v>
       </c>
       <c r="F196" s="9" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="G196" s="11" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H196" s="11" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>1115</v>
+        <v>1080</v>
       </c>
       <c r="J196" s="11" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="K196" s="11" t="s">
-        <v>1052</v>
+        <v>1034</v>
       </c>
       <c r="L196" s="24"/>
       <c r="M196" s="2"/>
     </row>
     <row r="197" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="22" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B197" s="11" t="s">
         <v>496</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D197" s="5" t="s">
         <v>112</v>
@@ -12728,20 +12724,20 @@
         <v>112</v>
       </c>
       <c r="F197" s="11" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="G197" s="11" t="s">
-        <v>1072</v>
+        <v>1112</v>
       </c>
       <c r="H197" s="11" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="I197" s="8" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="J197" s="9"/>
       <c r="K197" s="9" t="s">
-        <v>1056</v>
+        <v>1038</v>
       </c>
       <c r="L197" s="24"/>
       <c r="M197" s="2"/>
@@ -12754,7 +12750,7 @@
         <v>513</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>112</v>
@@ -12763,20 +12759,20 @@
         <v>112</v>
       </c>
       <c r="F198" s="11" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="G198" s="11" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="H198" s="11" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="I198" s="8" t="s">
-        <v>1119</v>
+        <v>1083</v>
       </c>
       <c r="J198" s="9"/>
       <c r="K198" s="9" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="L198" s="24"/>
       <c r="M198" s="2"/>
@@ -12789,7 +12785,7 @@
         <v>515</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>112</v>
@@ -12798,25 +12794,25 @@
         <v>112</v>
       </c>
       <c r="F199" s="11" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="G199" s="11" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="H199" s="11" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="I199" s="8" t="s">
-        <v>1108</v>
+        <v>1074</v>
       </c>
       <c r="J199" s="9"/>
       <c r="K199" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L199" s="24"/>
       <c r="M199" s="2"/>
     </row>
-    <row r="200" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="21" t="s">
         <v>519</v>
       </c>
@@ -12824,7 +12820,7 @@
         <v>517</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>112</v>
@@ -12833,20 +12829,20 @@
         <v>112</v>
       </c>
       <c r="F200" s="11" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="G200" s="11" t="s">
-        <v>1080</v>
+        <v>1055</v>
       </c>
       <c r="H200" s="11" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="I200" s="21" t="s">
-        <v>1042</v>
+        <v>1025</v>
       </c>
       <c r="J200" s="9"/>
       <c r="K200" s="9" t="s">
-        <v>1057</v>
+        <v>1039</v>
       </c>
       <c r="L200" s="24"/>
       <c r="M200" s="2"/>
@@ -12859,7 +12855,7 @@
         <v>497</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>112</v>
@@ -12871,17 +12867,17 @@
         <v>581</v>
       </c>
       <c r="G201" s="21" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H201" s="7" t="s">
         <v>498</v>
       </c>
       <c r="I201" s="21" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="J201" s="9"/>
       <c r="K201" s="11" t="s">
-        <v>1058</v>
+        <v>1040</v>
       </c>
       <c r="L201" s="24"/>
       <c r="M201" s="2"/>
@@ -12894,7 +12890,7 @@
         <v>505</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>112</v>
@@ -12903,22 +12899,22 @@
         <v>112</v>
       </c>
       <c r="F202" s="11" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="G202" s="11" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="I202" s="8" t="s">
-        <v>1108</v>
+        <v>1074</v>
       </c>
       <c r="J202" s="9" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="K202" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L202" s="24"/>
       <c r="M202" s="2"/>
@@ -12931,7 +12927,7 @@
         <v>524</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>112</v>
@@ -12940,20 +12936,20 @@
         <v>112</v>
       </c>
       <c r="F203" s="11" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="G203" s="11" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
       <c r="H203" s="11" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="I203" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J203" s="9"/>
       <c r="K203" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L203" s="24"/>
       <c r="M203" s="2"/>
@@ -12966,7 +12962,7 @@
         <v>525</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D204" s="5" t="s">
         <v>112</v>
@@ -12975,20 +12971,20 @@
         <v>112</v>
       </c>
       <c r="F204" s="11" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="G204" s="11" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H204" s="11" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="I204" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J204" s="9"/>
       <c r="K204" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L204" s="24"/>
       <c r="M204" s="2"/>
@@ -13001,7 +12997,7 @@
         <v>526</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D205" s="5" t="s">
         <v>112</v>
@@ -13010,33 +13006,33 @@
         <v>112</v>
       </c>
       <c r="F205" s="11" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="G205" s="11" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="H205" s="11" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="I205" s="8" t="s">
-        <v>1036</v>
+        <v>1020</v>
       </c>
       <c r="J205" s="9"/>
       <c r="K205" s="11" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L205" s="24"/>
       <c r="M205" s="2"/>
     </row>
     <row r="206" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="21" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B206" s="11" t="s">
         <v>527</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="D206" s="5" t="s">
         <v>112</v>
@@ -13045,20 +13041,20 @@
         <v>112</v>
       </c>
       <c r="F206" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G206" s="11" t="s">
-        <v>1076</v>
+        <v>1052</v>
       </c>
       <c r="H206" s="11" t="s">
         <v>528</v>
       </c>
       <c r="I206" s="8" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="J206" s="9"/>
       <c r="K206" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L206" s="24"/>
       <c r="M206" s="2"/>
@@ -13071,7 +13067,7 @@
         <v>530</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>1044</v>
+        <v>1027</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>112</v>
@@ -13083,22 +13079,22 @@
         <v>533</v>
       </c>
       <c r="G207" s="11" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H207" s="11" t="s">
         <v>531</v>
       </c>
       <c r="I207" s="8" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="J207" s="9" t="s">
         <v>532</v>
       </c>
       <c r="K207" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L207" s="24" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="M207" s="2"/>
     </row>
@@ -13107,10 +13103,10 @@
         <v>98</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D208" s="5" t="s">
         <v>112</v>
@@ -13119,20 +13115,20 @@
         <v>112</v>
       </c>
       <c r="F208" s="11" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="G208" s="11" t="s">
-        <v>1073</v>
+        <v>1113</v>
       </c>
       <c r="H208" s="11" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="I208" s="8" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="J208" s="9"/>
       <c r="K208" s="11" t="s">
-        <v>1053</v>
+        <v>1035</v>
       </c>
       <c r="L208" s="24"/>
       <c r="M208" s="2"/>
@@ -13145,7 +13141,7 @@
         <v>534</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D209" s="5" t="s">
         <v>112</v>
@@ -13154,20 +13150,20 @@
         <v>112</v>
       </c>
       <c r="F209" s="11" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="G209" s="11" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H209" s="7" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="I209" s="8" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="J209" s="9"/>
       <c r="K209" s="11" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L209" s="24"/>
       <c r="M209" s="2"/>
@@ -13180,7 +13176,7 @@
         <v>535</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D210" s="5" t="s">
         <v>112</v>
@@ -13189,29 +13185,29 @@
         <v>112</v>
       </c>
       <c r="F210" s="9" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="G210" s="10" t="s">
-        <v>1124</v>
+        <v>1087</v>
       </c>
       <c r="H210" s="10" t="s">
         <v>537</v>
       </c>
       <c r="I210" s="10" t="s">
-        <v>1106</v>
+        <v>1115</v>
       </c>
       <c r="J210" s="10" t="s">
         <v>538</v>
       </c>
       <c r="K210" s="10" t="s">
-        <v>1054</v>
+        <v>1036</v>
       </c>
       <c r="L210" s="24" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="M210" s="2"/>
     </row>
-    <row r="211" spans="1:15" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="21" t="s">
         <v>100</v>
       </c>
@@ -13219,7 +13215,7 @@
         <v>539</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>112</v>
@@ -13231,22 +13227,22 @@
         <v>540</v>
       </c>
       <c r="G211" s="11" t="s">
-        <v>1031</v>
+        <v>1105</v>
       </c>
       <c r="H211" s="11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I211" s="8" t="s">
-        <v>1065</v>
+        <v>1045</v>
       </c>
       <c r="J211" s="9" t="s">
         <v>541</v>
       </c>
       <c r="K211" s="11" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L211" s="24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M211" s="2"/>
     </row>
@@ -13258,7 +13254,7 @@
         <v>542</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D212" s="5" t="s">
         <v>112</v>
@@ -13267,20 +13263,20 @@
         <v>112</v>
       </c>
       <c r="F212" s="11" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="G212" s="11" t="s">
-        <v>1032</v>
+        <v>1104</v>
       </c>
       <c r="H212" s="11" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="I212" s="8" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="J212" s="9"/>
       <c r="K212" s="11" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L212" s="24"/>
       <c r="M212" s="2"/>
@@ -13293,7 +13289,7 @@
         <v>543</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D213" s="5" t="s">
         <v>112</v>
@@ -13302,20 +13298,20 @@
         <v>112</v>
       </c>
       <c r="F213" s="11" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="G213" s="11" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H213" s="11" t="s">
         <v>544</v>
       </c>
       <c r="I213" s="8" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="J213" s="9"/>
       <c r="K213" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L213" s="24"/>
       <c r="M213" s="2"/>
@@ -13328,7 +13324,7 @@
         <v>507</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>1047</v>
+        <v>1030</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>112</v>
@@ -13337,20 +13333,20 @@
         <v>112</v>
       </c>
       <c r="F214" s="11" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="G214" s="11" t="s">
-        <v>1100</v>
+        <v>1068</v>
       </c>
       <c r="H214" s="11" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="I214" s="8" t="s">
-        <v>1108</v>
+        <v>1074</v>
       </c>
       <c r="J214" s="9"/>
       <c r="K214" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L214" s="24"/>
       <c r="M214" s="2"/>
@@ -13363,7 +13359,7 @@
         <v>509</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>112</v>
@@ -13372,20 +13368,20 @@
         <v>112</v>
       </c>
       <c r="F215" s="11" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="G215" s="11" t="s">
-        <v>1124</v>
+        <v>1087</v>
       </c>
       <c r="H215" s="7" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="I215" s="8" t="s">
-        <v>1106</v>
+        <v>1115</v>
       </c>
       <c r="J215" s="9"/>
       <c r="K215" s="9" t="s">
-        <v>1054</v>
+        <v>1036</v>
       </c>
       <c r="L215" s="24"/>
       <c r="M215" s="2"/>
@@ -13398,7 +13394,7 @@
         <v>545</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D216" s="5" t="s">
         <v>112</v>
@@ -13407,25 +13403,25 @@
         <v>112</v>
       </c>
       <c r="F216" s="11" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="G216" s="11" t="s">
-        <v>1018</v>
+        <v>1108</v>
       </c>
       <c r="H216" s="11" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="I216" s="8" t="s">
-        <v>1066</v>
+        <v>1119</v>
       </c>
       <c r="J216" s="9" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="K216" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L216" s="24" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="M216" s="2"/>
     </row>
@@ -13437,7 +13433,7 @@
         <v>546</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D217" s="5" t="s">
         <v>112</v>
@@ -13446,23 +13442,23 @@
         <v>112</v>
       </c>
       <c r="F217" s="9" t="s">
-        <v>1089</v>
+        <v>1061</v>
       </c>
       <c r="G217" s="11" t="s">
-        <v>1073</v>
+        <v>1113</v>
       </c>
       <c r="H217" s="9" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="I217" s="8" t="s">
-        <v>1123</v>
+        <v>1086</v>
       </c>
       <c r="J217" s="9"/>
       <c r="K217" s="9" t="s">
-        <v>1053</v>
+        <v>1035</v>
       </c>
       <c r="L217" s="24" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="M217" s="2"/>
     </row>
@@ -13474,7 +13470,7 @@
         <v>547</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>112</v>
@@ -13486,17 +13482,17 @@
         <v>548</v>
       </c>
       <c r="G218" s="11" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H218" s="11" t="s">
         <v>548</v>
       </c>
       <c r="I218" s="8" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="J218" s="9"/>
       <c r="K218" s="11" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L218" s="24"/>
       <c r="M218" s="2"/>
@@ -13509,7 +13505,7 @@
         <v>510</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>112</v>
@@ -13519,15 +13515,15 @@
       </c>
       <c r="F219" s="5"/>
       <c r="G219" s="11" t="s">
-        <v>1032</v>
+        <v>1104</v>
       </c>
       <c r="H219" s="7"/>
       <c r="I219" s="8" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="J219" s="9"/>
       <c r="K219" s="11" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L219" s="24"/>
       <c r="M219" s="2"/>
@@ -13540,7 +13536,7 @@
         <v>511</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>112</v>
@@ -13552,15 +13548,15 @@
         <v>512</v>
       </c>
       <c r="G220" s="11" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H220" s="7"/>
       <c r="I220" s="11" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="J220" s="9"/>
       <c r="K220" s="11" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="L220" s="24"/>
       <c r="M220" s="2"/>
@@ -13573,7 +13569,7 @@
         <v>549</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D221" s="5" t="s">
         <v>112</v>
@@ -13585,17 +13581,17 @@
         <v>550</v>
       </c>
       <c r="G221" s="11" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
       <c r="H221" s="11" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="I221" s="8" t="s">
-        <v>1119</v>
+        <v>1083</v>
       </c>
       <c r="J221" s="9"/>
       <c r="K221" s="9" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="L221" s="24"/>
       <c r="M221" s="2"/>
@@ -13608,7 +13604,7 @@
         <v>552</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D222" s="5" t="s">
         <v>112</v>
@@ -13617,25 +13613,25 @@
         <v>112</v>
       </c>
       <c r="F222" s="11" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="G222" s="11" t="s">
-        <v>1080</v>
+        <v>1055</v>
       </c>
       <c r="H222" s="11" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="I222" s="8" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="J222" s="11" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="K222" s="9" t="s">
-        <v>1057</v>
+        <v>1039</v>
       </c>
       <c r="L222" s="24" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="M222" s="2"/>
     </row>
@@ -13647,7 +13643,7 @@
         <v>553</v>
       </c>
       <c r="C223" s="28" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D223" s="29" t="s">
         <v>112</v>
@@ -13659,17 +13655,17 @@
         <v>554</v>
       </c>
       <c r="G223" s="31" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H223" s="31" t="s">
         <v>555</v>
       </c>
       <c r="I223" s="32" t="s">
-        <v>1033</v>
+        <v>1017</v>
       </c>
       <c r="J223" s="27"/>
       <c r="K223" s="11" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="L223" s="33"/>
       <c r="M223" s="2"/>
